--- a/behavioral_August2019/psychopy experiment/audio_excel_sheets/14_audio.xlsx
+++ b/behavioral_August2019/psychopy experiment/audio_excel_sheets/14_audio.xlsx
@@ -62,7 +62,7 @@
     <t>parcelated_audio/14/14_15.aiff</t>
   </si>
   <si>
-    <t>parcelated_audio/14/14_16aiff</t>
+    <t>parcelated_audio/14/14_16.aiff</t>
   </si>
   <si>
     <t>parcelated_audio/14/14_17.aiff</t>
